--- a/4лабаТОПО.xlsx
+++ b/4лабаТОПО.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Примечание</t>
   </si>
@@ -61,13 +61,6 @@
   </si>
   <si>
     <t>Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Открыть вкладку регистрации 
-2. Зарегистрироваться в системе с именем "Goga"
-3. Выйти из системы
-4. Зарегистрироваться в системе с именем "Goga"
-</t>
   </si>
   <si>
     <t>Успешная регистрация
@@ -270,18 +263,6 @@
     <t>Появляется сообщение "Калі ласка, увядзіце валідную колькасць месяцаў"</t>
   </si>
   <si>
-    <t>Названия языков: "Беларусский" и "rусский"</t>
-  </si>
-  <si>
-    <t>Название языков: "Белорусский" и "Русский"</t>
-  </si>
-  <si>
-    <t>Название языка: "Russian"</t>
-  </si>
-  <si>
-    <t>Название языка:"Руский"</t>
-  </si>
-  <si>
     <t>Мои кредиты: не осуществляется поиск</t>
   </si>
   <si>
@@ -341,26 +322,6 @@
     <t>Можно сохранить отредактированный кредит, не меняя название</t>
   </si>
   <si>
-    <t>Название вкладки:
-"Мои проблемы"</t>
-  </si>
-  <si>
-    <t>Название вкладки:
-"Мои расчёты"</t>
-  </si>
-  <si>
-    <t>Расчёт кредита: неверное название
- вкладки в выпадающем меню "Дорово, имя пользователя"</t>
-  </si>
-  <si>
-    <t>Название кнопки 
-"Дорово, Korchvagen"</t>
-  </si>
-  <si>
-    <t>Название кнопки
- "Привет, Korchvagen"</t>
-  </si>
-  <si>
     <t>Название таблицы
 "Мои расчёты"</t>
   </si>
@@ -379,36 +340,11 @@
 "Мои проблемы"</t>
   </si>
   <si>
-    <t>Расчёт кредита: неверное название кнопки
- выпадающего меню
- "Дорово, имя пользователя"</t>
-  </si>
-  <si>
-    <t>Рачёт кредита: в выпадающем меню "Язык" при выбранном русском языке некорректно написаны языки</t>
-  </si>
-  <si>
-    <t>Расчёт кредита: в выпадающем меню "Язык" при выбранном русском языке некорректно написаны языки</t>
-  </si>
-  <si>
-    <t>Предусловие: установлен русский язык
-1. Открыть вкладку "Расчёт кредита"
-2. Открыть меню"Язык"</t>
-  </si>
-  <si>
-    <t>Предусловие: установлен белорусский язык
-1. Открыть вкладку "Расчёт кредита"
-2. Открыть меню"Мова"</t>
-  </si>
-  <si>
-    <t>Предусловие: установлен русский
- язык и пользователь авторизован
-1. Открыть вкладку "Расчёт кредита"</t>
-  </si>
-  <si>
-    <t>Предусловие: установлен русский язык
-1. Открыть вкладку "Расчёт кредита"
-2. Открыть меню
- "Дорово, имя пользователя"</t>
+    <t xml:space="preserve">1. Открыть вкладку регистрации 
+2. Зарегистрироваться в системе с именем "Vadim"
+3. Выйти из системы
+4. Зарегистрироваться в системе с именем "Vadim"
+</t>
   </si>
 </sst>
 </file>
@@ -468,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -506,35 +442,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -558,17 +470,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1064,234 +965,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
+      <xdr:colOff>33617</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3361</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3002615</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Рисунок 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8393205" y="41764323"/>
-          <a:ext cx="3522009" cy="2901763"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3518647</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3031548</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Рисунок 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8393206" y="44868353"/>
-          <a:ext cx="3507441" cy="2930695"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3522840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1972235</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Рисунок 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8404411" y="47983588"/>
-          <a:ext cx="3500429" cy="1882588"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3507441</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3469995</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Рисунок 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8393205" y="50023058"/>
-          <a:ext cx="3496236" cy="3402761"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>17</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3507441</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2882435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1302,7 +983,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1340,14 +1021,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9334</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1557618</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1549335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1357,7 +1038,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1371,8 +1052,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8415618" y="56780206"/>
-          <a:ext cx="3505569" cy="1378324"/>
+          <a:off x="8432183" y="56476185"/>
+          <a:ext cx="3512390" cy="1378324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1395,13 +1076,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>272142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3530480</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>898071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1412,7 +1093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1450,14 +1131,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3510644</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2659528</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2601547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1467,7 +1148,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1481,7 +1162,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8409215" y="61858072"/>
+          <a:off x="8412173" y="61499551"/>
           <a:ext cx="3497036" cy="2550670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1769,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,13 +1502,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
@@ -1839,19 +1520,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -1860,22 +1541,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="182.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1883,19 +1564,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -1904,19 +1585,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1925,22 +1606,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1948,22 +1629,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1971,23 +1652,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1995,23 +1676,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="345" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2019,19 +1700,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -2040,19 +1721,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -2061,43 +1742,44 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="244.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="D14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="246" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2105,180 +1787,96 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="162.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="282" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="240.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="218.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="19" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="218.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4лабаТОПО.xlsx
+++ b/4лабаТОПО.xlsx
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
